--- a/exports/tables/Themencluster_Fachexperten_BERTTopic_paraphrase-multilingual-MiniLM-L12-v2_Themencluster_Fachexperten.xlsx
+++ b/exports/tables/Themencluster_Fachexperten_BERTTopic_paraphrase-multilingual-MiniLM-L12-v2_Themencluster_Fachexperten.xlsx
@@ -8,26 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Repos/github.com/DominikFin/nlp-satisfaction/exports/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5D7758-30ED-BB49-8B91-3782925B560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C29C01-F612-9A4D-A48C-32AE7AF8E9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="520" windowWidth="24600" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="9" r:id="rId1"/>
     <sheet name="Pivot" sheetId="11" r:id="rId2"/>
-    <sheet name="Cluster_L2" sheetId="12" r:id="rId3"/>
-    <sheet name="clusters v1" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="Cluster_L1" sheetId="14" r:id="rId3"/>
+    <sheet name="Cluster_L2" sheetId="12" r:id="rId4"/>
+    <sheet name="Cluster_L3" sheetId="13" r:id="rId5"/>
+    <sheet name="clusters v1" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cluster_L2!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'clusters v1'!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cluster_L2!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'clusters v1'!$A$1:$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">export!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId6"/>
-    <pivotCache cacheId="53" r:id="rId7"/>
+    <pivotCache cacheId="60" r:id="rId8"/>
+    <pivotCache cacheId="61" r:id="rId9"/>
+    <pivotCache cacheId="67" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="738">
   <si>
     <t>Topic</t>
   </si>
@@ -2251,6 +2254,15 @@
   </si>
   <si>
     <t>Pünktlichkeit</t>
+  </si>
+  <si>
+    <t>Verpasster Anschluss</t>
+  </si>
+  <si>
+    <t>Gültigkeit Ticket</t>
+  </si>
+  <si>
+    <t>Präsenz Zugpersonal</t>
   </si>
 </sst>
 </file>
@@ -2325,13 +2337,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2578,6 +2590,203 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dom" refreshedDate="44998.343973842595" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="97" xr:uid="{259F274C-8560-7D41-A123-3B9C60187419}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P98" sheet="export"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Topic" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="95"/>
+    </cacheField>
+    <cacheField name="Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54" maxValue="18072" count="81">
+        <n v="18072"/>
+        <n v="2231"/>
+        <n v="1785"/>
+        <n v="1441"/>
+        <n v="1274"/>
+        <n v="1264"/>
+        <n v="1049"/>
+        <n v="966"/>
+        <n v="796"/>
+        <n v="607"/>
+        <n v="590"/>
+        <n v="586"/>
+        <n v="551"/>
+        <n v="524"/>
+        <n v="486"/>
+        <n v="483"/>
+        <n v="437"/>
+        <n v="414"/>
+        <n v="372"/>
+        <n v="364"/>
+        <n v="362"/>
+        <n v="347"/>
+        <n v="331"/>
+        <n v="306"/>
+        <n v="302"/>
+        <n v="299"/>
+        <n v="271"/>
+        <n v="267"/>
+        <n v="266"/>
+        <n v="265"/>
+        <n v="254"/>
+        <n v="225"/>
+        <n v="220"/>
+        <n v="214"/>
+        <n v="212"/>
+        <n v="195"/>
+        <n v="194"/>
+        <n v="187"/>
+        <n v="182"/>
+        <n v="178"/>
+        <n v="168"/>
+        <n v="156"/>
+        <n v="152"/>
+        <n v="148"/>
+        <n v="147"/>
+        <n v="143"/>
+        <n v="141"/>
+        <n v="140"/>
+        <n v="139"/>
+        <n v="138"/>
+        <n v="129"/>
+        <n v="125"/>
+        <n v="120"/>
+        <n v="119"/>
+        <n v="116"/>
+        <n v="115"/>
+        <n v="111"/>
+        <n v="110"/>
+        <n v="100"/>
+        <n v="99"/>
+        <n v="97"/>
+        <n v="94"/>
+        <n v="93"/>
+        <n v="91"/>
+        <n v="87"/>
+        <n v="85"/>
+        <n v="84"/>
+        <n v="79"/>
+        <n v="78"/>
+        <n v="77"/>
+        <n v="75"/>
+        <n v="73"/>
+        <n v="71"/>
+        <n v="69"/>
+        <n v="67"/>
+        <n v="66"/>
+        <n v="64"/>
+        <n v="61"/>
+        <n v="59"/>
+        <n v="56"/>
+        <n v="54"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="keyword 1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="keyword 2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="keyword 3" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="keyword 4" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="keyword 5" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="keyword 6" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="keyword 7" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="keyword 8" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="keyword 9" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="keyword 10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Custom Label" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="cluster_level_1" numFmtId="0">
+      <sharedItems count="13">
+        <s v="Outlier"/>
+        <s v="Bahnangebot und Betrieb"/>
+        <s v="Sauberkeit"/>
+        <s v="Corona"/>
+        <s v="Rollmaterial"/>
+        <s v="Kommerzielle Angebote"/>
+        <s v="Vertrieb und Services"/>
+        <s v="Lob"/>
+        <s v="Preis-Leistung"/>
+        <s v="Security"/>
+        <s v="Feedback Umfrage"/>
+        <s v="Sonstiges"/>
+        <s v="Kundeninformation"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cluster_level_2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="cluster_level_3" numFmtId="0">
+      <sharedItems count="37">
+        <s v="Outlier"/>
+        <s v="Pünktlichkeit"/>
+        <s v="Sauberkeit WC und Verfügbarkeit"/>
+        <s v="Corona "/>
+        <s v="Raumtemperatur Zug"/>
+        <s v="Fahrplanangebot"/>
+        <s v="Kommerzielle Angebote"/>
+        <s v="SBB Mobile App"/>
+        <s v="Lob Generell"/>
+        <s v="Platzangebot Zug"/>
+        <s v="Platzangebot Velo"/>
+        <s v="Preis-Leistung"/>
+        <s v="Security"/>
+        <s v="Feedback Umfrage"/>
+        <s v="Internet, Wlan und Mobilfunk"/>
+        <s v="Familienabteil"/>
+        <s v="Platzangebot Gepäck"/>
+        <s v="Ruhe im Zug"/>
+        <s v="Reisen mit Hund"/>
+        <s v="KI Durchsagen"/>
+        <s v="Rauchen"/>
+        <s v="Bahnzugang"/>
+        <s v="Preis-Leistung Sparbillette"/>
+        <s v="KI Anzeigen"/>
+        <s v="Reisen mit Einschränkungen"/>
+        <s v="Swisspass"/>
+        <s v="Sauberkeit Generell"/>
+        <s v="Ausstattung Qualität Rollmaterial"/>
+        <s v="Lob Personal"/>
+        <s v="Sonstiges"/>
+        <s v="Kein Feedback"/>
+        <s v="Sauberkeit Abfall"/>
+        <s v="EasyRide"/>
+        <s v="KI Störungsinformation"/>
+        <s v="Präsenz Mitarbeitende"/>
+        <s v="KI Sonstiges"/>
+        <s v="Platzangebot Wintersport"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="99">
   <r>
@@ -6251,8 +6460,1759 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+  <r>
+    <n v="-1"/>
+    <x v="0"/>
+    <s v="zug"/>
+    <s v="züge"/>
+    <s v="strecke"/>
+    <s v="klasse"/>
+    <s v="app"/>
+    <s v="fahrt"/>
+    <s v="verbindung"/>
+    <s v="ticket"/>
+    <s v="fahren"/>
+    <s v="wagen"/>
+    <s v="Sonstiges"/>
+    <x v="0"/>
+    <s v="Outlier"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="umsteigen"/>
+    <s v="zug"/>
+    <s v="verspätung"/>
+    <s v="verbindung"/>
+    <s v="minuten"/>
+    <s v="strecke"/>
+    <s v="anschluss"/>
+    <s v="richtung"/>
+    <s v="stunde"/>
+    <s v="züge"/>
+    <s v="Pünktlichkeit und Anschlusserreichung"/>
+    <x v="1"/>
+    <s v="Pünktlichkeit"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="wc"/>
+    <s v="toiletten"/>
+    <s v="wcs"/>
+    <s v="toilette"/>
+    <s v="defekt"/>
+    <s v="geschlossen"/>
+    <s v="sauberkeit"/>
+    <s v="sauber"/>
+    <s v="zügen"/>
+    <s v="saubere"/>
+    <s v="Sauberkeit und WC Verfügbarkeit im Zug"/>
+    <x v="2"/>
+    <s v="WC Verfügbarkeit und Sauberkeit"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <s v="maske"/>
+    <s v="maskenpflicht"/>
+    <s v="masken"/>
+    <s v="tragen"/>
+    <s v="getragen"/>
+    <s v="nase"/>
+    <s v="kontrolle"/>
+    <s v="leute"/>
+    <s v="kontrollen"/>
+    <s v="trinken"/>
+    <s v="Corona"/>
+    <x v="3"/>
+    <s v="Corona"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="4"/>
+    <s v="kalt"/>
+    <s v="klimaanlage"/>
+    <s v="eingestellt"/>
+    <s v="sommer"/>
+    <s v="temperatur"/>
+    <s v="warm"/>
+    <s v="heiss"/>
+    <s v="grad"/>
+    <s v="stark"/>
+    <s v="kühl"/>
+    <s v="Temperatur im Zug"/>
+    <x v="4"/>
+    <s v="Raumtemperatur Zug"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="5"/>
+    <s v="postauto"/>
+    <s v="busse"/>
+    <s v="anschluss"/>
+    <s v="fährt"/>
+    <s v="minuten"/>
+    <s v="busverbindung"/>
+    <s v="haltestelle"/>
+    <s v="warten"/>
+    <s v="verspätung"/>
+    <s v="busfahrer"/>
+    <s v="Pünktlichkeit und Anschlusserreichung"/>
+    <x v="1"/>
+    <s v="Fahrplanangebot"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="6"/>
+    <s v="speisewagen"/>
+    <s v="kaffee"/>
+    <s v="bistro"/>
+    <s v="getränke"/>
+    <s v="trinken"/>
+    <s v="bedient"/>
+    <s v="geschlossen"/>
+    <s v="gipfeli"/>
+    <s v="verbieten"/>
+    <s v="wägeli"/>
+    <s v="Verpflegung auf der Reise"/>
+    <x v="5"/>
+    <s v="Kommerzielle Angebote"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="7"/>
+    <s v="verspätungen"/>
+    <s v="pünktlichkeit"/>
+    <s v="verspätung"/>
+    <s v="minuten"/>
+    <s v="wartezeit"/>
+    <s v="pünktlich"/>
+    <s v="verbindungen"/>
+    <s v="verbindung"/>
+    <s v="halbstundentakt"/>
+    <s v="takt"/>
+    <s v="Pünktlichkeit und Anschlusserreichung"/>
+    <x v="1"/>
+    <s v="Pünktlichkeit"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="8"/>
+    <s v="app"/>
+    <s v="mobile"/>
+    <s v="ticket"/>
+    <s v="lösen"/>
+    <s v="billet"/>
+    <s v="code"/>
+    <s v="kaufen"/>
+    <s v="billett"/>
+    <s v="funktioniert"/>
+    <s v="qr"/>
+    <s v="Digitale Kanäle"/>
+    <x v="6"/>
+    <s v="Vertrieb und Services"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="9"/>
+    <s v="zufrieden"/>
+    <s v="super"/>
+    <s v="angebot"/>
+    <s v="job"/>
+    <s v="leistungen"/>
+    <s v="service"/>
+    <s v="schätze"/>
+    <s v="gerne"/>
+    <s v="öv"/>
+    <s v="personal"/>
+    <s v="Lob"/>
+    <x v="7"/>
+    <s v="Lob"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="10"/>
+    <s v="verspätung"/>
+    <s v="zug"/>
+    <s v="minuten"/>
+    <s v="verpasst"/>
+    <s v="anschluss"/>
+    <s v="anschlusszug"/>
+    <s v="spät"/>
+    <s v="fuhr"/>
+    <s v="warten"/>
+    <s v="gleis"/>
+    <s v="Pünktlichkeit und Anschlusserreichung"/>
+    <x v="1"/>
+    <s v="Pünktlichkeit"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="11"/>
+    <s v="wagen"/>
+    <s v="wagons"/>
+    <s v="anhängen"/>
+    <s v="stosszeiten"/>
+    <s v="klasse"/>
+    <s v="wagon"/>
+    <s v="waggons"/>
+    <s v="klasswagen"/>
+    <s v="klass"/>
+    <s v="einsetzen"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="1"/>
+    <s v="Platzangebot Zug"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="12"/>
+    <s v="klasse"/>
+    <s v="klassenwechsel"/>
+    <s v="plätze"/>
+    <s v="klass"/>
+    <s v="platzangebot"/>
+    <s v="wagen"/>
+    <s v="überfüllt"/>
+    <s v="klassen"/>
+    <s v="stosszeiten"/>
+    <s v="voll"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="1"/>
+    <s v="Platzangebot Zug"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="13"/>
+    <s v="fahrrad"/>
+    <s v="fahrräder"/>
+    <s v="bike"/>
+    <s v="bikes"/>
+    <s v="reservation"/>
+    <s v="velo"/>
+    <s v="fahrrädern"/>
+    <s v="fahrradplätze"/>
+    <s v="plätze"/>
+    <s v="unterwegs"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="1"/>
+    <s v="Platzangebot Velo, Gepäck, Kinderwagen"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="14"/>
+    <s v="tickets"/>
+    <s v="spartickets"/>
+    <s v="günstigere"/>
+    <s v="ticket"/>
+    <s v="ticketpreise"/>
+    <s v="günstiger"/>
+    <s v="teuer"/>
+    <s v="billigere"/>
+    <s v="bilette"/>
+    <s v="bilett"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="15"/>
+    <s v="sicherheitspersonal"/>
+    <s v="fühle"/>
+    <s v="abend"/>
+    <s v="sicherheit"/>
+    <s v="abends"/>
+    <s v="nachts"/>
+    <s v="sicherheitskräfte"/>
+    <s v="bahnhöfen"/>
+    <s v="sicher"/>
+    <s v="alleine"/>
+    <s v="Sicherheitsempfinden im Zug und am Bahnhof"/>
+    <x v="9"/>
+    <s v="Security"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="16"/>
+    <s v="verspätungen"/>
+    <s v="verspätung"/>
+    <s v="minuten"/>
+    <s v="zug"/>
+    <s v="anschlusszüge"/>
+    <s v="züge"/>
+    <s v="verspätet"/>
+    <s v="informieren"/>
+    <s v="pünktlichkeit"/>
+    <s v="anschlusszug"/>
+    <s v="Pünktlichkeit und Anschlusserreichung"/>
+    <x v="1"/>
+    <s v="Pünktlichkeit"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="17"/>
+    <s v="züge"/>
+    <s v="längere"/>
+    <s v="stosszeiten"/>
+    <s v="einsetzen"/>
+    <s v="zugkompositionen"/>
+    <s v="zugverbindungen"/>
+    <s v="wagen"/>
+    <s v="zugskompositionen"/>
+    <s v="zügen"/>
+    <s v="bessere"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="1"/>
+    <s v="Platzangebot Zug"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="18"/>
+    <s v="teuer"/>
+    <s v="preise"/>
+    <s v="preis"/>
+    <s v="zugfahren"/>
+    <s v="günstiger"/>
+    <s v="halbtax"/>
+    <s v="fahren"/>
+    <s v="senken"/>
+    <s v="bahn"/>
+    <s v="billiger"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="19"/>
+    <s v="schweiz"/>
+    <s v="teuer"/>
+    <s v="öv"/>
+    <s v="ticket"/>
+    <s v="schweizer"/>
+    <s v="kostet"/>
+    <s v="chf"/>
+    <s v="preise"/>
+    <s v="zone"/>
+    <s v="halbtax"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="20"/>
+    <s v="überfüllt"/>
+    <s v="voll"/>
+    <s v="zug"/>
+    <s v="stehen"/>
+    <s v="besetzt"/>
+    <s v="sitzplatz"/>
+    <s v="total"/>
+    <s v="klasse"/>
+    <s v="sitzen"/>
+    <s v="komplett"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="1"/>
+    <s v="Platzangebot Zug"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="21"/>
+    <s v="sitzplätze"/>
+    <s v="sitze"/>
+    <s v="sitzplatz"/>
+    <s v="verfügung"/>
+    <s v="sitzgelegenheiten"/>
+    <s v="stosszeiten"/>
+    <s v="stellen"/>
+    <s v="plätze"/>
+    <s v="sitzen"/>
+    <s v="genügend"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="1"/>
+    <s v="Platzangebot Zug"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="22"/>
+    <s v="umfrage"/>
+    <s v="fragen"/>
+    <s v="umfragen"/>
+    <s v="fragebogen"/>
+    <s v="beantworten"/>
+    <s v="befragung"/>
+    <s v="ausfüllen"/>
+    <s v="stellen"/>
+    <s v="kürzer"/>
+    <s v="kürzere"/>
+    <s v="Feedback zur Umfrage"/>
+    <x v="10"/>
+    <s v="Feedback Umfrage"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="23"/>
+    <s v="züge"/>
+    <s v="überfüllt"/>
+    <s v="klasse"/>
+    <s v="voll"/>
+    <s v="zügen"/>
+    <s v="stosszeiten"/>
+    <s v="sitzen"/>
+    <s v="sitzplätze"/>
+    <s v="stehen"/>
+    <s v="sitze"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="1"/>
+    <s v="Platzangebot Zug"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="24"/>
+    <s v="preise"/>
+    <s v="billiger"/>
+    <s v="preis"/>
+    <s v="günstigere"/>
+    <s v="günstiger"/>
+    <s v="leistung"/>
+    <s v="billigere"/>
+    <s v="leistungsverhältnis"/>
+    <s v="tarife"/>
+    <s v="anpassen"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="25"/>
+    <s v="app"/>
+    <s v="ticket"/>
+    <s v="lösen"/>
+    <s v="kaufen"/>
+    <s v="billet"/>
+    <s v="kauf"/>
+    <s v="gekauft"/>
+    <s v="billett"/>
+    <s v="gelöst"/>
+    <s v="mobile"/>
+    <s v="Digitale Kanäle"/>
+    <x v="6"/>
+    <s v="Vertrieb und Services"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="26"/>
+    <s v="platzangebot"/>
+    <s v="veloplätze"/>
+    <s v="velos"/>
+    <s v="stosszeiten"/>
+    <s v="plätze"/>
+    <s v="grösseres"/>
+    <s v="kapazitäten"/>
+    <s v="schaffen"/>
+    <s v="verfügung"/>
+    <s v="velo"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="1"/>
+    <s v="Platzangebot Zug"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="27"/>
+    <s v="zufrieden"/>
+    <s v="perfekt"/>
+    <s v="geklappt"/>
+    <s v="bestens"/>
+    <s v="ok"/>
+    <s v="rundum"/>
+    <s v="super"/>
+    <s v="ordnung"/>
+    <s v="prima"/>
+    <s v="dankeschön"/>
+    <s v="Lob"/>
+    <x v="7"/>
+    <s v="Lob"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="28"/>
+    <s v="wlan"/>
+    <s v="wifi"/>
+    <s v="zügen"/>
+    <s v="kostenloses"/>
+    <s v="gratis"/>
+    <s v="free"/>
+    <s v="zug"/>
+    <s v="freies"/>
+    <s v="anbieten"/>
+    <s v="swisscom"/>
+    <s v="Konnektivität auf der Reise"/>
+    <x v="4"/>
+    <s v="Internet, Wlan und Mobilfunk"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="29"/>
+    <s v="kinderwagen"/>
+    <s v="familienwagen"/>
+    <s v="kinder"/>
+    <s v="familien"/>
+    <s v="familienabteil"/>
+    <s v="kindern"/>
+    <s v="kind"/>
+    <s v="spielplatz"/>
+    <s v="spielwagen"/>
+    <s v="velos"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="4"/>
+    <s v="Ausstattung Qualität Rollmaterial"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="30"/>
+    <s v="gepäck"/>
+    <s v="koffer"/>
+    <s v="zügen"/>
+    <s v="gepäckablage"/>
+    <s v="grössere"/>
+    <s v="koffern"/>
+    <s v="verstauen"/>
+    <s v="reisegepäck"/>
+    <s v="züge"/>
+    <s v="stauraum"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="1"/>
+    <s v="Platzangebot Velo, Gepäck, Kinderwagen"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="31"/>
+    <s v="koffer"/>
+    <s v="gepäck"/>
+    <s v="koffern"/>
+    <s v="verstauen"/>
+    <s v="reisegepäck"/>
+    <s v="stauraum"/>
+    <s v="ablage"/>
+    <s v="gepäckablagen"/>
+    <s v="gepäckstücke"/>
+    <s v="gepäckablage"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="1"/>
+    <s v="Platzangebot Velo, Gepäck, Kinderwagen"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="32"/>
+    <s v="telefonieren"/>
+    <s v="gespräche"/>
+    <s v="laut"/>
+    <s v="handy"/>
+    <s v="laute"/>
+    <s v="störend"/>
+    <s v="telefongespräche"/>
+    <s v="telefoniert"/>
+    <s v="kopfhörer"/>
+    <s v="ruhewagen"/>
+    <s v="Störendes Verhalten anderer Kunden"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="33"/>
+    <s v="wlan"/>
+    <s v="zufrieden"/>
+    <s v="bahn"/>
+    <s v="zug"/>
+    <s v="steckdosen"/>
+    <s v="zügen"/>
+    <s v="pünktlich"/>
+    <s v="angenehm"/>
+    <s v="gerne"/>
+    <s v="züge"/>
+    <s v="Konnektivität auf der Reise"/>
+    <x v="4"/>
+    <s v="Internet, Wlan und Mobilfunk"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="34"/>
+    <s v="hund"/>
+    <s v="hunde"/>
+    <s v="gratis"/>
+    <s v="sitz"/>
+    <s v="ga"/>
+    <s v="teuer"/>
+    <s v="hundetageskarte"/>
+    <s v="hunden"/>
+    <s v="lösen"/>
+    <s v="bezahlen"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="35"/>
+    <s v="durchsagen"/>
+    <s v="lautsprecher"/>
+    <s v="leise"/>
+    <s v="lautsprecherdurchsagen"/>
+    <s v="verständlich"/>
+    <s v="ansagen"/>
+    <s v="lautstärke"/>
+    <s v="laut"/>
+    <s v="lärm"/>
+    <s v="hörbar"/>
+    <s v="Kundeninformation im Zug und am Bahnhof"/>
+    <x v="12"/>
+    <s v="Kundeninformation"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="36"/>
+    <s v="rauchen"/>
+    <s v="rauchverbot"/>
+    <s v="raucher"/>
+    <s v="geraucht"/>
+    <s v="bahnhöfen"/>
+    <s v="rauchfrei"/>
+    <s v="bahnhöfe"/>
+    <s v="perrons"/>
+    <s v="rauch"/>
+    <s v="raucherzonen"/>
+    <s v="Störendes Verhalten anderer Kunden"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="36"/>
+    <s v="app"/>
+    <s v="verbindungen"/>
+    <s v="anzeigen"/>
+    <s v="funktioniert"/>
+    <s v="verbessern"/>
+    <s v="funktion"/>
+    <s v="lösen"/>
+    <s v="funktionieren"/>
+    <s v="info"/>
+    <s v="gutscheine"/>
+    <s v="Digitale Kanäle"/>
+    <x v="6"/>
+    <s v="Vertrieb und Services"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="37"/>
+    <s v="siehe"/>
+    <s v="kommentar"/>
+    <s v="vorherigen"/>
+    <s v="bemerkungen"/>
+    <s v="vorherige"/>
+    <s v="erwähnt"/>
+    <s v="beschrieben"/>
+    <s v="vorhin"/>
+    <s v="anregungen"/>
+    <s v="kommentare"/>
+    <s v="Feedback zur Umfrage"/>
+    <x v="10"/>
+    <s v="Feedback Umfrage"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="38"/>
+    <s v="kinderwagen"/>
+    <s v="treppe"/>
+    <s v="rampe"/>
+    <s v="treppen"/>
+    <s v="kinder"/>
+    <s v="familienwagen"/>
+    <s v="lift"/>
+    <s v="familien"/>
+    <s v="kindern"/>
+    <s v="spielwagen"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="39"/>
+    <s v="studenten"/>
+    <s v="ga"/>
+    <s v="studierende"/>
+    <s v="schüler"/>
+    <s v="preise"/>
+    <s v="lernende"/>
+    <s v="günstigere"/>
+    <s v="jugendliche"/>
+    <s v="geld"/>
+    <s v="einführen"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="40"/>
+    <s v="sparbillette"/>
+    <s v="sparbillete"/>
+    <s v="anbieten"/>
+    <s v="sparangebote"/>
+    <s v="sparbillett"/>
+    <s v="sparbillets"/>
+    <s v="sparbilette"/>
+    <s v="kurzfristig"/>
+    <s v="sparbilletten"/>
+    <s v="angebote"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="41"/>
+    <s v="anzeigetafeln"/>
+    <s v="anzeige"/>
+    <s v="anzeigen"/>
+    <s v="perrons"/>
+    <s v="sektor"/>
+    <s v="perron"/>
+    <s v="stationen"/>
+    <s v="abschnitte"/>
+    <s v="schilder"/>
+    <s v="sektoren"/>
+    <s v="Kundeninformation im Zug und am Bahnhof"/>
+    <x v="12"/>
+    <s v="Kundeninformation"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="42"/>
+    <s v="verbindungen"/>
+    <s v="bessere"/>
+    <s v="direkte"/>
+    <s v="verbindung"/>
+    <s v="schnellere"/>
+    <s v="häufigere"/>
+    <s v="spätere"/>
+    <s v="direktere"/>
+    <s v="direktverbindung"/>
+    <s v="anschlussverbindungen"/>
+    <s v="Pünktlichkeit und Anschlusserreichung"/>
+    <x v="1"/>
+    <s v="Fahrplanangebot"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="43"/>
+    <s v="umsteigen"/>
+    <s v="direkte"/>
+    <s v="umsteigezeit"/>
+    <s v="knapp"/>
+    <s v="tilo"/>
+    <s v="mailand"/>
+    <s v="anschluss"/>
+    <s v="verbindung"/>
+    <s v="verspätung"/>
+    <s v="zug"/>
+    <s v="Pünktlichkeit und Anschlusserreichung"/>
+    <x v="1"/>
+    <s v="Fahrplanangebot"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="43"/>
+    <s v="rollstuhl"/>
+    <s v="rollstuhlfahrer"/>
+    <s v="kinderwagen"/>
+    <s v="behinderte"/>
+    <s v="rollstuhlgängig"/>
+    <s v="gehbehinderte"/>
+    <s v="lift"/>
+    <s v="rampe"/>
+    <s v="hilfe"/>
+    <s v="aussteigen"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="44"/>
+    <s v="teuer"/>
+    <s v="preise"/>
+    <s v="preis"/>
+    <s v="billette"/>
+    <s v="billet"/>
+    <s v="öv"/>
+    <s v="vergleich"/>
+    <s v="billettpreis"/>
+    <s v="wallis"/>
+    <s v="meinung"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="45"/>
+    <s v="gepäck"/>
+    <s v="koffer"/>
+    <s v="gepäckstücke"/>
+    <s v="stauraum"/>
+    <s v="gepäckablagen"/>
+    <s v="schaffen"/>
+    <s v="koffern"/>
+    <s v="velos"/>
+    <s v="bessere"/>
+    <s v="ablagemöglichkeiten"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="1"/>
+    <s v="Platzangebot Velo, Gepäck, Kinderwagen"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="46"/>
+    <s v="wlan"/>
+    <s v="wifi"/>
+    <s v="free"/>
+    <s v="gratis"/>
+    <s v="steckdosen"/>
+    <s v="empfang"/>
+    <s v="freies"/>
+    <s v="wi"/>
+    <s v="fi"/>
+    <s v="internet"/>
+    <s v="Konnektivität auf der Reise"/>
+    <x v="4"/>
+    <s v="Internet, Wlan und Mobilfunk"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="47"/>
+    <s v="internet"/>
+    <s v="internetverbindung"/>
+    <s v="internetzugang"/>
+    <s v="empfang"/>
+    <s v="gratis"/>
+    <s v="netz"/>
+    <s v="online"/>
+    <s v="internetverbindungen"/>
+    <s v="stabile"/>
+    <s v="zugang"/>
+    <s v="Konnektivität auf der Reise"/>
+    <x v="4"/>
+    <s v="Internet, Wlan und Mobilfunk"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="47"/>
+    <s v="job"/>
+    <s v="bestens"/>
+    <s v="arbeit"/>
+    <s v="super"/>
+    <s v="tolle"/>
+    <s v="herzlichen"/>
+    <s v="dankeschön"/>
+    <s v="service"/>
+    <s v="mädchen"/>
+    <s v="gratulation"/>
+    <s v="Lob"/>
+    <x v="7"/>
+    <s v="Lob"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="48"/>
+    <s v="swisspass"/>
+    <s v="pass"/>
+    <s v="app"/>
+    <s v="juniorkarte"/>
+    <s v="zeigen"/>
+    <s v="karte"/>
+    <s v="vorweisen"/>
+    <s v="hinterlegt"/>
+    <s v="juniorkarten"/>
+    <s v="passwort"/>
+    <s v="Digitale Kanäle"/>
+    <x v="6"/>
+    <s v="Vertrieb und Services"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="49"/>
+    <s v="sauberkeit"/>
+    <s v="züge"/>
+    <s v="zügen"/>
+    <s v="verhalten"/>
+    <s v="personal"/>
+    <s v="sicher"/>
+    <s v="täglich"/>
+    <s v="sauber"/>
+    <s v="corona"/>
+    <s v="zufrieden"/>
+    <s v="Sauberkeit und WC Verfügbarkeit im Zug"/>
+    <x v="2"/>
+    <s v="Sauberkeit Zug und Bahnhof"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="50"/>
+    <s v="velotransport"/>
+    <s v="velos"/>
+    <s v="reservationspflicht"/>
+    <s v="velo"/>
+    <s v="reservation"/>
+    <s v="reservationen"/>
+    <s v="veloplätze"/>
+    <s v="plätze"/>
+    <s v="reservierung"/>
+    <s v="transport"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="1"/>
+    <s v="Platzangebot Velo, Gepäck, Kinderwagen"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="51"/>
+    <s v="rollmaterial"/>
+    <s v="besseres"/>
+    <s v="einsetzen"/>
+    <s v="neueres"/>
+    <s v="moderneres"/>
+    <s v="rollmaterials"/>
+    <s v="erneuern"/>
+    <s v="strecke"/>
+    <s v="rollenmaterial"/>
+    <s v="material"/>
+    <s v="Rollmaterial und Ausstattung im Zug"/>
+    <x v="4"/>
+    <s v="Ausstattung Qualität Rollmaterial"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="52"/>
+    <s v="zugbegleiter"/>
+    <s v="freundlich"/>
+    <s v="zugbegleiterin"/>
+    <s v="freundliches"/>
+    <s v="zugpersonal"/>
+    <s v="freundliche"/>
+    <s v="zuvorkommend"/>
+    <s v="hilfsbereit"/>
+    <s v="nett"/>
+    <s v="kompliment"/>
+    <s v="Lob"/>
+    <x v="7"/>
+    <s v="Lob"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="53"/>
+    <s v="handy"/>
+    <s v="laden"/>
+    <s v="steckdosen"/>
+    <s v="aufladen"/>
+    <s v="smartphone"/>
+    <s v="akku"/>
+    <s v="geräte"/>
+    <s v="phone"/>
+    <s v="steckdose"/>
+    <s v="handys"/>
+    <s v="Konnektivität auf der Reise"/>
+    <x v="4"/>
+    <s v="Ausstattung Qualität Rollmaterial"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="53"/>
+    <s v="sparbilette"/>
+    <s v="steckdosen"/>
+    <s v="sparbillete"/>
+    <s v="fussballspiel"/>
+    <s v="ruheabteile"/>
+    <s v="buchbar"/>
+    <s v="abreise"/>
+    <s v="extrazüge"/>
+    <s v="stehplatz"/>
+    <s v="rampen"/>
+    <s v="Sonstiges"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="54"/>
+    <s v="way"/>
+    <s v="one"/>
+    <s v="ii"/>
+    <s v="uf"/>
+    <s v="mer"/>
+    <s v="33"/>
+    <s v="spur"/>
+    <s v="ticket"/>
+    <s v="vo"/>
+    <s v="offeriert"/>
+    <s v="Sonstiges"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="55"/>
+    <s v="personal"/>
+    <s v="kunden"/>
+    <s v="freundliches"/>
+    <s v="freundlichkeit"/>
+    <s v="freundlich"/>
+    <s v="mitarbeiter"/>
+    <s v="innen"/>
+    <s v="nettes"/>
+    <s v="kontrolleure"/>
+    <s v="chefetage"/>
+    <s v="Lob"/>
+    <x v="7"/>
+    <s v="Lob"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="56"/>
+    <s v="sauberkeit"/>
+    <s v="übrig"/>
+    <s v="wünschen"/>
+    <s v="lässt"/>
+    <s v="kontrollen"/>
+    <s v="verbessern"/>
+    <s v="kontrolle"/>
+    <s v="thema"/>
+    <s v="manchmal"/>
+    <s v="pünktlichkeit"/>
+    <s v="Sauberkeit und WC Verfügbarkeit im Zug"/>
+    <x v="2"/>
+    <s v="Sauberkeit Zug und Bahnhof"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="57"/>
+    <s v="nei"/>
+    <s v="non"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Sonstiges"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="58"/>
+    <s v="abfall"/>
+    <s v="abfalleimer"/>
+    <s v="abfallbehälter"/>
+    <s v="abfallkübel"/>
+    <s v="liegen"/>
+    <s v="entsorgen"/>
+    <s v="mülleimer"/>
+    <s v="liegt"/>
+    <s v="abfälle"/>
+    <s v="leeren"/>
+    <s v="Sauberkeit und WC Verfügbarkeit im Zug"/>
+    <x v="2"/>
+    <s v="Sauberkeit Zug und Bahnhof"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="59"/>
+    <s v="top"/>
+    <s v="tip"/>
+    <s v="tiptop"/>
+    <s v="tipp"/>
+    <s v="io"/>
+    <s v="tipptopp"/>
+    <s v="paletti"/>
+    <s v="ol"/>
+    <s v="topp"/>
+    <s v="bestens"/>
+    <s v="Lob"/>
+    <x v="7"/>
+    <s v="Lob"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="60"/>
+    <s v="abfalleimer"/>
+    <s v="abfallbehälter"/>
+    <s v="abfall"/>
+    <s v="abfallkübel"/>
+    <s v="dosen"/>
+    <s v="abteilen"/>
+    <s v="leeren"/>
+    <s v="müll"/>
+    <s v="entsorgen"/>
+    <s v="pet"/>
+    <s v="Sauberkeit und WC Verfügbarkeit im Zug"/>
+    <x v="2"/>
+    <s v="Sauberkeit Zug und Bahnhof"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="60"/>
+    <s v="easy"/>
+    <s v="ride"/>
+    <s v="easyride"/>
+    <s v="funktioniert"/>
+    <s v="standort"/>
+    <s v="starten"/>
+    <s v="lösen"/>
+    <s v="ermittelt"/>
+    <s v="ticket"/>
+    <s v="betätigen"/>
+    <s v="Digitale Kanäle"/>
+    <x v="6"/>
+    <s v="Vertrieb und Services"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="61"/>
+    <s v="bombardier"/>
+    <s v="dosto"/>
+    <s v="schüttelbecher"/>
+    <s v="dans"/>
+    <s v="züge"/>
+    <s v="fahrkomfort"/>
+    <s v="schaukeln"/>
+    <s v="qui"/>
+    <s v="stadler"/>
+    <s v="est"/>
+    <s v="Rollmaterial und Ausstattung im Zug"/>
+    <x v="4"/>
+    <s v="Ausstattung Qualität Rollmaterial"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="62"/>
+    <s v="informieren"/>
+    <s v="informationen"/>
+    <s v="störungen"/>
+    <s v="information"/>
+    <s v="bessere"/>
+    <s v="störungsfällen"/>
+    <s v="genauere"/>
+    <s v="mitzuteilen"/>
+    <s v="klare"/>
+    <s v="infos"/>
+    <s v="Kundeninformation im Zug und am Bahnhof"/>
+    <x v="12"/>
+    <s v="Kundeninformation"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="62"/>
+    <s v="zugbegleiter"/>
+    <s v="personal"/>
+    <s v="zügen"/>
+    <s v="zugpersonal"/>
+    <s v="präsenz"/>
+    <s v="begleitpersonal"/>
+    <s v="innen"/>
+    <s v="zugsbegleiter"/>
+    <s v="einsetzen"/>
+    <s v="zugbegleiterinnen"/>
+    <s v="Sonstiges"/>
+    <x v="9"/>
+    <s v="Security"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="63"/>
+    <s v="gleis"/>
+    <s v="umsteigezeit"/>
+    <s v="anschluss"/>
+    <s v="minuten"/>
+    <s v="knapp"/>
+    <s v="umsteigen"/>
+    <s v="rennen"/>
+    <s v="verspätung"/>
+    <s v="xx"/>
+    <s v="zug"/>
+    <s v="Pünktlichkeit und Anschlusserreichung"/>
+    <x v="1"/>
+    <s v="Fahrplanangebot"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="63"/>
+    <s v="sicherheitspersonal"/>
+    <s v="abends"/>
+    <s v="abend"/>
+    <s v="sicherheitskräfte"/>
+    <s v="sicherheit"/>
+    <s v="nachts"/>
+    <s v="präsenz"/>
+    <s v="sicherheits"/>
+    <s v="sicher"/>
+    <s v="sicherer"/>
+    <s v="Sicherheitsempfinden im Zug und am Bahnhof"/>
+    <x v="9"/>
+    <s v="Security"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="64"/>
+    <s v="fahrt"/>
+    <s v="reise"/>
+    <s v="angenehme"/>
+    <s v="perfekt"/>
+    <s v="zufrieden"/>
+    <s v="schöne"/>
+    <s v="geklappt"/>
+    <s v="gottardo"/>
+    <s v="super"/>
+    <s v="landschaftlich"/>
+    <s v="Lob"/>
+    <x v="7"/>
+    <s v="Lob"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="65"/>
+    <s v="taschen"/>
+    <s v="sitzplätze"/>
+    <s v="fahrgäste"/>
+    <s v="passagiere"/>
+    <s v="sitze"/>
+    <s v="schuhe"/>
+    <s v="füsse"/>
+    <s v="belegen"/>
+    <s v="gepäck"/>
+    <s v="aufmerksam"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="1"/>
+    <s v="Platzangebot Zug"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="66"/>
+    <s v="sauberkeit"/>
+    <s v="zügen"/>
+    <s v="bahnhöfen"/>
+    <s v="sicherheit"/>
+    <s v="übrig"/>
+    <s v="verbessern"/>
+    <s v="wünschen"/>
+    <s v="verbessert"/>
+    <s v="lässt"/>
+    <s v="innendesign"/>
+    <s v="Sauberkeit und WC Verfügbarkeit im Zug"/>
+    <x v="2"/>
+    <s v="Sauberkeit Zug und Bahnhof"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="67"/>
+    <s v="platzangebot"/>
+    <s v="knapp"/>
+    <s v="klein"/>
+    <s v="velos"/>
+    <s v="veloplätze"/>
+    <s v="mangelhaft"/>
+    <s v="velo"/>
+    <s v="beschränkt"/>
+    <s v="knappes"/>
+    <s v="mtb"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="1"/>
+    <s v="Platzangebot Velo, Gepäck, Kinderwagen"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="67"/>
+    <s v="app"/>
+    <s v="anzeigen"/>
+    <s v="verbindungen"/>
+    <s v="zb"/>
+    <s v="angezeigt"/>
+    <s v="angaben"/>
+    <s v="zugverbindung"/>
+    <s v="hilfreich"/>
+    <s v="karte"/>
+    <s v="rail"/>
+    <s v="Digitale Kanäle"/>
+    <x v="6"/>
+    <s v="Vertrieb und Services"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="68"/>
+    <s v="reinigen"/>
+    <s v="reinigung"/>
+    <s v="sauberer"/>
+    <s v="züge"/>
+    <s v="sauber"/>
+    <s v="hygiene"/>
+    <s v="sauberkeit"/>
+    <s v="reinigungspersonal"/>
+    <s v="zugreinigung"/>
+    <s v="erbrochenes"/>
+    <s v="Sauberkeit und WC Verfügbarkeit im Zug"/>
+    <x v="2"/>
+    <s v="Sauberkeit Zug und Bahnhof"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="69"/>
+    <s v="perron"/>
+    <s v="perrons"/>
+    <s v="eng"/>
+    <s v="welle"/>
+    <s v="schmal"/>
+    <s v="anzeige"/>
+    <s v="wechseln"/>
+    <s v="gelangen"/>
+    <s v="abgehen"/>
+    <s v="siegenthaler"/>
+    <s v="Platzangebot im Zug und am Bahnhof"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <x v="70"/>
+    <s v="türen"/>
+    <s v="öffnen"/>
+    <s v="türe"/>
+    <s v="geöffnet"/>
+    <s v="automatisch"/>
+    <s v="defekte"/>
+    <s v="defekt"/>
+    <s v="türstörungen"/>
+    <s v="reparieren"/>
+    <s v="defekten"/>
+    <s v="Rollmaterial und Ausstattung im Zug"/>
+    <x v="4"/>
+    <s v="Ausstattung Qualität Rollmaterial"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <x v="70"/>
+    <s v="ga"/>
+    <s v="besitzer"/>
+    <s v="vergünstigungen"/>
+    <s v="partner"/>
+    <s v="preis"/>
+    <s v="günstiger"/>
+    <s v="halbtax"/>
+    <s v="hinterlegung"/>
+    <s v="preise"/>
+    <s v="kunden"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <x v="71"/>
+    <s v="sicherheitspersonal"/>
+    <s v="sicherheitskräfte"/>
+    <s v="security"/>
+    <s v="präsenz"/>
+    <s v="sicherheit"/>
+    <s v="personal"/>
+    <s v="sicherheits"/>
+    <s v="anwesenden"/>
+    <s v="polizei"/>
+    <s v="sicherheitsleute"/>
+    <s v="Sicherheitsempfinden im Zug und am Bahnhof"/>
+    <x v="9"/>
+    <s v="Security"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <x v="72"/>
+    <s v="corona"/>
+    <s v="zeiten"/>
+    <s v="coronazeit"/>
+    <s v="angesteckt"/>
+    <s v="schutzkonzept"/>
+    <s v="bezgl"/>
+    <s v="regeln"/>
+    <s v="waggons"/>
+    <s v="stosszeiten"/>
+    <s v="zt"/>
+    <s v="Corona"/>
+    <x v="3"/>
+    <s v="Corona"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <x v="73"/>
+    <s v="fahrpreise"/>
+    <s v="teuer"/>
+    <s v="billiger"/>
+    <s v="öv"/>
+    <s v="preise"/>
+    <s v="preis"/>
+    <s v="senken"/>
+    <s v="kurze"/>
+    <s v="verkehr"/>
+    <s v="distanzen"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <x v="73"/>
+    <s v="49"/>
+    <s v="niveau"/>
+    <s v="jammern"/>
+    <s v="hohem"/>
+    <s v="besoffene"/>
+    <s v="abschaffen"/>
+    <s v="besonderen"/>
+    <s v="vergnügen"/>
+    <s v="aufhören"/>
+    <s v="treno"/>
+    <s v="Störendes Verhalten anderer Kunden"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <x v="74"/>
+    <s v="corona"/>
+    <s v="zeiten"/>
+    <s v="züge"/>
+    <s v="massnahmen"/>
+    <s v="verkürzten"/>
+    <s v="voll"/>
+    <s v="momentanen"/>
+    <s v="situation"/>
+    <s v="distanzregeln"/>
+    <s v="einhalten"/>
+    <s v="Corona"/>
+    <x v="3"/>
+    <s v="Corona"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <x v="75"/>
+    <s v="senken"/>
+    <s v="preise"/>
+    <s v="reduzieren"/>
+    <s v="kürzen"/>
+    <s v="billetpreise"/>
+    <s v="salär"/>
+    <s v="preisreduktion"/>
+    <s v="senkt"/>
+    <s v="gesenkt"/>
+    <s v="sinken"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <x v="75"/>
+    <s v="schiffsreise"/>
+    <s v="gefahren"/>
+    <s v="fähre"/>
+    <s v="schifffahrt"/>
+    <s v="unterwegs"/>
+    <s v="handelte"/>
+    <s v="kursschiff"/>
+    <s v="schiffsverbindung"/>
+    <s v="dampfschiff"/>
+    <s v="wunderschön"/>
+    <s v="Sonstiges"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <x v="76"/>
+    <s v="reinigung"/>
+    <s v="reinigen"/>
+    <s v="sauberer"/>
+    <s v="sauberkeit"/>
+    <s v="reinigungspersonal"/>
+    <s v="lumpen"/>
+    <s v="hygiene"/>
+    <s v="griffe"/>
+    <s v="reinigungen"/>
+    <s v="gründlich"/>
+    <s v="Sauberkeit und WC Verfügbarkeit im Zug"/>
+    <x v="2"/>
+    <s v="Sauberkeit Zug und Bahnhof"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <x v="76"/>
+    <s v="s2"/>
+    <s v="s12"/>
+    <s v="s11"/>
+    <s v="s9"/>
+    <s v="s8"/>
+    <s v="s19"/>
+    <s v="kombination"/>
+    <s v="tösstal"/>
+    <s v="s7"/>
+    <s v="s25"/>
+    <s v="Sonstiges"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <x v="76"/>
+    <s v="none"/>
+    <s v="at"/>
+    <s v="this"/>
+    <s v="time"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Sonstiges"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <x v="76"/>
+    <s v="raucher"/>
+    <s v="rauchen"/>
+    <s v="rauchverbot"/>
+    <s v="geraucht"/>
+    <s v="perrons"/>
+    <s v="zigaretten"/>
+    <s v="perron"/>
+    <s v="durchsetzen"/>
+    <s v="raucherabteile"/>
+    <s v="zigarette"/>
+    <s v="Störendes Verhalten anderer Kunden"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <x v="77"/>
+    <s v="sprachen"/>
+    <s v="englisch"/>
+    <s v="durchsagen"/>
+    <s v="französisch"/>
+    <s v="deutsch"/>
+    <s v="fremdsprachen"/>
+    <s v="landessprache"/>
+    <s v="gesprochen"/>
+    <s v="sprache"/>
+    <s v="ortsnamen"/>
+    <s v="Kundeninformation im Zug und am Bahnhof"/>
+    <x v="12"/>
+    <s v="Kundeninformation"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <x v="78"/>
+    <s v="laptop"/>
+    <s v="arbeiten"/>
+    <s v="tische"/>
+    <s v="steckdosen"/>
+    <s v="laptops"/>
+    <s v="tisch"/>
+    <s v="arbeitsplätze"/>
+    <s v="fensterplatz"/>
+    <s v="tischen"/>
+    <s v="pc"/>
+    <s v="Rollmaterial und Ausstattung im Zug"/>
+    <x v="4"/>
+    <s v="Ausstattung Qualität Rollmaterial"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <x v="78"/>
+    <s v="gültig"/>
+    <s v="ticket"/>
+    <s v="gebucht"/>
+    <s v="buchung"/>
+    <s v="datum"/>
+    <s v="rückfahrt"/>
+    <s v="folgetag"/>
+    <s v="retourbillet"/>
+    <s v="tickets"/>
+    <s v="gelöst"/>
+    <s v="Sonstiges"/>
+    <x v="6"/>
+    <s v="Vertrieb und Services"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <x v="79"/>
+    <s v="nöö"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Sonstiges"/>
+    <x v="11"/>
+    <s v="Sonstiges"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <x v="80"/>
+    <s v="ski"/>
+    <s v="skis"/>
+    <s v="gepäck"/>
+    <s v="snowboards"/>
+    <s v="skier"/>
+    <s v="skiausrüstung"/>
+    <s v="stauraum"/>
+    <s v="koffer"/>
+    <s v="winter"/>
+    <s v="rucksäcke"/>
+    <s v="Reisen mit Gepäck, Velo, Kindern und Hund"/>
+    <x v="1"/>
+    <s v="Platzangebot Velo, Gepäck, Kinderwagen"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <x v="80"/>
+    <s v="sparbillette"/>
+    <s v="schade"/>
+    <s v="sparbilette"/>
+    <s v="sparbillet"/>
+    <s v="sparbillete"/>
+    <s v="strecke"/>
+    <s v="2018"/>
+    <s v="verfügbar"/>
+    <s v="2019"/>
+    <s v="sparbillett"/>
+    <s v="Preis-Leistung"/>
+    <x v="8"/>
+    <s v="Preis-Leistung"/>
+    <x v="22"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59B645E8-2DEA-104D-98ED-167128FD5118}" name="PivotTable5" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59B645E8-2DEA-104D-98ED-167128FD5118}" name="PivotTable5" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -6498,7 +8458,394 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97749196-4455-C043-80DA-9FE577034ACA}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D62774D-9115-9842-A3EA-15B63215C32F}" name="PivotTable7" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="82">
+        <item x="80"/>
+        <item x="79"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Count" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DA2FF2D-D59C-9644-BDE7-06CEE0B5644E}" name="PivotTable8" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="38">
+        <item x="27"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="32"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="35"/>
+        <item x="33"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="36"/>
+        <item x="9"/>
+        <item x="34"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="26"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="15"/>
+  </rowFields>
+  <rowItems count="38">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Count" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97749196-4455-C043-80DA-9FE577034ACA}" name="PivotTable3" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -6942,15 +9289,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AD9548-7EF0-7B43-9D99-98AB3780D3D8}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="22" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="49.83203125" customWidth="1"/>
+    <col min="14" max="14" width="49.83203125" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
     <col min="16" max="16" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7006,540 +9354,540 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>18072</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>265</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>357</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>421</v>
+        <v>220</v>
       </c>
       <c r="J2" t="s">
-        <v>477</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>534</v>
+        <v>412</v>
       </c>
       <c r="L2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>2231</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>374</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>463</v>
       </c>
       <c r="K3" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="L3" t="s">
-        <v>610</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>119</v>
+        <v>1785</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I4" t="s">
-        <v>440</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>493</v>
+        <v>324</v>
       </c>
       <c r="K4" t="s">
-        <v>554</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="M4" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>94</v>
+        <v>1441</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="H5" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="I5" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="J5" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="K5" t="s">
-        <v>560</v>
+        <v>318</v>
       </c>
       <c r="L5" t="s">
-        <v>618</v>
+        <v>285</v>
       </c>
       <c r="M5" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>730</v>
+        <v>645</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>730</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>1274</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="H6" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="I6" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="J6" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="K6" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
       <c r="L6" t="s">
-        <v>629</v>
+        <v>581</v>
       </c>
       <c r="M6" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>683</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>1264</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>335</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="I7" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="J7" t="s">
-        <v>521</v>
+        <v>466</v>
       </c>
       <c r="K7" t="s">
-        <v>577</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="M7" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1441</v>
+        <v>1049</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I8" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="J8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K8" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="L8" t="s">
-        <v>285</v>
+        <v>583</v>
       </c>
       <c r="M8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>645</v>
+        <v>710</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>645</v>
+        <v>710</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>966</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="I9" t="s">
-        <v>453</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="K9" t="s">
-        <v>172</v>
+        <v>527</v>
       </c>
       <c r="L9" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="M9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>645</v>
+        <v>734</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>684</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>796</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="I10" t="s">
-        <v>455</v>
+        <v>234</v>
       </c>
       <c r="J10" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="K10" t="s">
-        <v>570</v>
+        <v>241</v>
       </c>
       <c r="L10" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="M10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>1264</v>
+        <v>607</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="H11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J11" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="L11" t="s">
-        <v>582</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>714</v>
+        <v>648</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>152</v>
+        <v>590</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="I12" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="J12" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="K12" t="s">
-        <v>543</v>
+        <v>466</v>
       </c>
       <c r="L12" t="s">
-        <v>602</v>
+        <v>68</v>
       </c>
       <c r="M12" t="s">
         <v>643</v>
@@ -7548,848 +9896,848 @@
         <v>715</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>148</v>
+        <v>586</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="I13" t="s">
-        <v>163</v>
+        <v>409</v>
       </c>
       <c r="J13" t="s">
-        <v>220</v>
+        <v>471</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="M13" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>715</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>551</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>448</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>472</v>
       </c>
       <c r="K14" t="s">
-        <v>562</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>715</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15">
+        <v>524</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" t="s">
+        <v>410</v>
+      </c>
+      <c r="J15" t="s">
+        <v>473</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
         <v>331</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G15" t="s">
-        <v>297</v>
-      </c>
-      <c r="H15" t="s">
-        <v>352</v>
-      </c>
-      <c r="I15" t="s">
-        <v>416</v>
-      </c>
-      <c r="J15" t="s">
-        <v>415</v>
-      </c>
-      <c r="K15" t="s">
-        <v>530</v>
-      </c>
-      <c r="L15" t="s">
-        <v>590</v>
-      </c>
       <c r="M15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>187</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H16" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="I16" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="K16" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="L16" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="M16" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>687</v>
+        <v>650</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>687</v>
+        <v>650</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>687</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>483</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
-        <v>266</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>348</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>432</v>
+        <v>205</v>
       </c>
       <c r="K17" t="s">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="L17" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="M17" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>214</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="J18" t="s">
-        <v>479</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>469</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>346</v>
       </c>
       <c r="M18" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>141</v>
+        <v>414</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>349</v>
       </c>
       <c r="I19" t="s">
-        <v>432</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="K19" t="s">
-        <v>546</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>140</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="H20" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="I20" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="J20" t="s">
-        <v>489</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
-        <v>548</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>607</v>
+        <v>106</v>
       </c>
       <c r="M20" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>729</v>
+        <v>650</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>729</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>1049</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H21" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="I21" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="J21" t="s">
-        <v>467</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L21" t="s">
-        <v>583</v>
+        <v>350</v>
       </c>
       <c r="M21" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>710</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="I22" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="J22" t="s">
-        <v>485</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="L22" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="M22" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="H23" t="s">
-        <v>386</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="J23" t="s">
-        <v>502</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s">
-        <v>561</v>
+        <v>417</v>
       </c>
       <c r="L23" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="M23" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="H24" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="I24" t="s">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="J24" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
       <c r="K24" t="s">
-        <v>576</v>
+        <v>530</v>
       </c>
       <c r="L24" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="M24" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>359</v>
+        <v>172</v>
       </c>
       <c r="I25" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>536</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>595</v>
+        <v>104</v>
       </c>
       <c r="M25" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>607</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H26" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="I26" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="J26" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>531</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>591</v>
       </c>
       <c r="M26" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>725</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>419</v>
       </c>
       <c r="J27" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="I28" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="J28" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="K28" t="s">
-        <v>547</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>606</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>648</v>
+        <v>715</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="H29" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="I29" t="s">
-        <v>438</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="K29" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="L29" t="s">
-        <v>611</v>
+        <v>433</v>
       </c>
       <c r="M29" t="s">
         <v>648</v>
@@ -8401,1498 +10749,1498 @@
         <v>648</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="H30" t="s">
-        <v>379</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>442</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="K30" t="s">
-        <v>556</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="M30" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="H31" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="I31" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="J31" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="K31" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="H32" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="J32" t="s">
-        <v>503</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="L32" t="s">
-        <v>622</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>648</v>
+        <v>715</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>648</v>
+        <v>720</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>18072</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="K33" t="s">
-        <v>412</v>
+        <v>189</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="M33" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>524</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="I34" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="J34" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="K34" t="s">
-        <v>168</v>
+        <v>535</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>593</v>
       </c>
       <c r="M34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>715</v>
+        <v>657</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>720</v>
+        <v>657</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
         <v>143</v>
       </c>
-      <c r="F35" t="s">
-        <v>237</v>
-      </c>
-      <c r="G35" t="s">
-        <v>300</v>
-      </c>
-      <c r="H35" t="s">
-        <v>180</v>
-      </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>479</v>
       </c>
       <c r="K35" t="s">
+        <v>469</v>
+      </c>
+      <c r="L35" t="s">
         <v>28</v>
       </c>
-      <c r="L35" t="s">
-        <v>249</v>
-      </c>
       <c r="M35" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G36" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J36" t="s">
-        <v>311</v>
+        <v>480</v>
       </c>
       <c r="K36" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s">
-        <v>237</v>
+        <v>594</v>
       </c>
       <c r="M36" t="s">
         <v>654</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>715</v>
+        <v>657</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>720</v>
+        <v>657</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B37">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H37" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="I37" t="s">
-        <v>180</v>
+        <v>425</v>
       </c>
       <c r="J37" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>536</v>
       </c>
       <c r="L37" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="M37" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="H38" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
+        <v>426</v>
       </c>
       <c r="J38" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K38" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="L38" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="M38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>715</v>
+        <v>657</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>720</v>
+        <v>657</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="H39" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="I39" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="J39" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="K39" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="L39" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="M39" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="F40" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="G40" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="I40" t="s">
-        <v>249</v>
+        <v>427</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>482</v>
       </c>
       <c r="K40" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="L40" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="M40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>586</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>347</v>
+        <v>111</v>
       </c>
       <c r="I41" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="J41" t="s">
-        <v>471</v>
+        <v>236</v>
       </c>
       <c r="K41" t="s">
-        <v>227</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>194</v>
+        <v>534</v>
       </c>
       <c r="M41" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>715</v>
+        <v>657</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>551</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F42" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>363</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="J42" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="K42" t="s">
-        <v>172</v>
+        <v>540</v>
       </c>
       <c r="L42" t="s">
-        <v>103</v>
+        <v>599</v>
       </c>
       <c r="M42" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>693</v>
+        <v>650</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>693</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <v>414</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H43" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>541</v>
       </c>
       <c r="L43" t="s">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="M43" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>693</v>
+        <v>650</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B44">
-        <v>362</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="G44" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H44" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>485</v>
       </c>
       <c r="K44" t="s">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="L44" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="M44" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G45" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H45" t="s">
-        <v>172</v>
+        <v>365</v>
       </c>
       <c r="I45" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="J45" t="s">
-        <v>168</v>
+        <v>486</v>
       </c>
       <c r="K45" t="s">
-        <v>417</v>
+        <v>543</v>
       </c>
       <c r="L45" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="M45" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>715</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>309</v>
+      </c>
+      <c r="H46" t="s">
+        <v>366</v>
+      </c>
+      <c r="I46" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" t="s">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s">
         <v>22</v>
       </c>
-      <c r="B46">
-        <v>306</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" t="s">
-        <v>172</v>
-      </c>
-      <c r="I46" t="s">
-        <v>417</v>
-      </c>
-      <c r="J46" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" t="s">
-        <v>231</v>
-      </c>
       <c r="L46" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="M46" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>715</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="H47" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="I47" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="J47" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="K47" t="s">
-        <v>232</v>
+        <v>544</v>
       </c>
       <c r="L47" t="s">
-        <v>253</v>
+        <v>603</v>
       </c>
       <c r="M47" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>715</v>
+        <v>657</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B48">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="H48" t="s">
-        <v>388</v>
+        <v>174</v>
       </c>
       <c r="I48" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="K48" t="s">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="L48" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="M48" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>693</v>
+        <v>650</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>693</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B49">
-        <v>486</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="G49" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="H49" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>126</v>
       </c>
       <c r="K49" t="s">
-        <v>528</v>
+        <v>120</v>
       </c>
       <c r="L49" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="M49" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>650</v>
+        <v>715</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>650</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B50">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="G50" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="H50" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="J50" t="s">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="K50" t="s">
-        <v>182</v>
+        <v>546</v>
       </c>
       <c r="L50" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="M50" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>364</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G51" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="H51" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="I51" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>489</v>
       </c>
       <c r="K51" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="L51" t="s">
-        <v>350</v>
+        <v>607</v>
       </c>
       <c r="M51" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>302</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="G52" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="H52" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="I52" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="J52" t="s">
-        <v>475</v>
+        <v>345</v>
       </c>
       <c r="K52" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="L52" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="M52" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B53">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="H53" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I53" t="s">
-        <v>170</v>
+        <v>435</v>
       </c>
       <c r="J53" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="K53" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="L53" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="M53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="F54" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G54" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>436</v>
       </c>
       <c r="J54" t="s">
-        <v>484</v>
+        <v>324</v>
       </c>
       <c r="K54" t="s">
-        <v>541</v>
+        <v>75</v>
       </c>
       <c r="L54" t="s">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="M54" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>650</v>
+        <v>698</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B55">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="F55" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>373</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>108</v>
       </c>
       <c r="J55" t="s">
-        <v>487</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L55" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="M55" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>650</v>
+        <v>715</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>650</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B56">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="H56" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="I56" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="J56" t="s">
-        <v>509</v>
+        <v>159</v>
       </c>
       <c r="K56" t="s">
-        <v>34</v>
+        <v>551</v>
       </c>
       <c r="L56" t="s">
-        <v>132</v>
+        <v>610</v>
       </c>
       <c r="M56" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="H57" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="J57" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="K57" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="L57" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="M57" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G58" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="H58" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="I58" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="J58" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="K58" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="L58" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="M58" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="G59" t="s">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="H59" t="s">
-        <v>159</v>
+        <v>376</v>
       </c>
       <c r="I59" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J59" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="K59" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="L59" t="s">
-        <v>306</v>
+        <v>612</v>
       </c>
       <c r="M59" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>650</v>
@@ -9906,340 +12254,316 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="F60" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H60" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I60" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J60" t="s">
-        <v>492</v>
+        <v>107</v>
       </c>
       <c r="K60" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L60" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M60" t="s">
         <v>657</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>728</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B61">
-        <v>2231</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="F61" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H61" t="s">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="I61" t="s">
-        <v>163</v>
+        <v>442</v>
       </c>
       <c r="J61" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="K61" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="L61" t="s">
-        <v>28</v>
+        <v>615</v>
       </c>
       <c r="M61" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>734</v>
+        <v>648</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>966</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G62" t="s">
+        <v>318</v>
+      </c>
+      <c r="H62" t="s">
+        <v>304</v>
+      </c>
+      <c r="I62" t="s">
+        <v>404</v>
+      </c>
+      <c r="J62" t="s">
+        <v>495</v>
+      </c>
+      <c r="K62" t="s">
+        <v>557</v>
+      </c>
+      <c r="L62" t="s">
         <v>94</v>
       </c>
-      <c r="E62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" t="s">
-        <v>166</v>
-      </c>
-      <c r="G62" t="s">
-        <v>286</v>
-      </c>
-      <c r="H62" t="s">
-        <v>343</v>
-      </c>
-      <c r="I62" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" t="s">
-        <v>220</v>
-      </c>
-      <c r="K62" t="s">
-        <v>527</v>
-      </c>
-      <c r="L62" t="s">
-        <v>584</v>
-      </c>
       <c r="M62" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B63">
-        <v>590</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" t="s">
-        <v>166</v>
-      </c>
-      <c r="F63" t="s">
-        <v>226</v>
-      </c>
-      <c r="G63" t="s">
-        <v>163</v>
-      </c>
-      <c r="H63" t="s">
-        <v>346</v>
-      </c>
-      <c r="I63" t="s">
-        <v>408</v>
-      </c>
-      <c r="J63" t="s">
-        <v>470</v>
-      </c>
-      <c r="K63" t="s">
-        <v>466</v>
-      </c>
-      <c r="L63" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="M63" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>715</v>
+        <v>657</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B64">
-        <v>437</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="G64" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="H64" t="s">
-        <v>28</v>
+        <v>380</v>
       </c>
       <c r="I64" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="J64" t="s">
-        <v>67</v>
+        <v>496</v>
       </c>
       <c r="K64" t="s">
-        <v>94</v>
+        <v>558</v>
       </c>
       <c r="L64" t="s">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="M64" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>734</v>
+        <v>699</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B65">
-        <v>1274</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F65" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="G65" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="H65" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="I65" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="J65" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="K65" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="L65" t="s">
-        <v>581</v>
+        <v>123</v>
       </c>
       <c r="M65" t="s">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>718</v>
+        <v>648</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G66" t="s">
-        <v>60</v>
+        <v>322</v>
       </c>
       <c r="H66" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="I66" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J66" t="s">
-        <v>324</v>
+        <v>499</v>
       </c>
       <c r="K66" t="s">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>617</v>
       </c>
       <c r="M66" t="s">
         <v>644</v>
@@ -10251,648 +12575,648 @@
         <v>731</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B67">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F67" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="G67" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H67" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="I67" t="s">
-        <v>404</v>
+        <v>177</v>
       </c>
       <c r="J67" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K67" t="s">
-        <v>557</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s">
-        <v>94</v>
+        <v>616</v>
       </c>
       <c r="M67" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>731</v>
+        <v>682</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="F68" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G68" t="s">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="H68" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I68" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J68" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K68" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L68" t="s">
-        <v>445</v>
+        <v>618</v>
       </c>
       <c r="M68" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="F69" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G69" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="H69" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I69" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J69" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K69" t="s">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="L69" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M69" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B70">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" t="s">
         <v>143</v>
       </c>
-      <c r="E70" t="s">
-        <v>205</v>
-      </c>
       <c r="F70" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="G70" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="H70" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="I70" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
       <c r="J70" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K70" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="L70" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M70" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>700</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="G71" t="s">
-        <v>324</v>
+        <v>145</v>
       </c>
       <c r="H71" t="s">
-        <v>391</v>
+        <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>448</v>
       </c>
       <c r="J71" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L71" t="s">
-        <v>627</v>
+        <v>12</v>
       </c>
       <c r="M71" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B72">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="G72" t="s">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="H72" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="I72" t="s">
-        <v>391</v>
+        <v>270</v>
       </c>
       <c r="J72" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="K72" t="s">
-        <v>574</v>
+        <v>372</v>
       </c>
       <c r="L72" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="M72" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>263</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="H73" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I73" t="s">
-        <v>442</v>
+        <v>178</v>
       </c>
       <c r="J73" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K73" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M73" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>701</v>
+        <v>648</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>701</v>
+        <v>648</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>483</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="F74" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="H74" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="I74" t="s">
-        <v>149</v>
+        <v>449</v>
       </c>
       <c r="J74" t="s">
-        <v>205</v>
+        <v>504</v>
       </c>
       <c r="K74" t="s">
-        <v>372</v>
+        <v>38</v>
       </c>
       <c r="L74" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="M74" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F75" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="G75" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="H75" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="I75" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="J75" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="K75" t="s">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="L75" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M75" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
         <v>79</v>
       </c>
-      <c r="B76">
-        <v>73</v>
-      </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F76" t="s">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="G76" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="H76" t="s">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="I76" t="s">
-        <v>452</v>
+        <v>253</v>
       </c>
       <c r="J76" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K76" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L76" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M76" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B77">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G77" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="I77" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="J77" t="s">
-        <v>236</v>
+        <v>506</v>
       </c>
       <c r="K77" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="L77" t="s">
-        <v>534</v>
+        <v>625</v>
       </c>
       <c r="M77" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H78" t="s">
-        <v>119</v>
+        <v>391</v>
       </c>
       <c r="I78" t="s">
-        <v>451</v>
+        <v>53</v>
       </c>
       <c r="J78" t="s">
-        <v>508</v>
+        <v>333</v>
       </c>
       <c r="K78" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L78" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M78" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>657</v>
+        <v>698</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B79">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F79" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G79" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="J79" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="K79" t="s">
-        <v>177</v>
+        <v>565</v>
       </c>
       <c r="L79" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="M79" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>657</v>
@@ -10901,256 +13225,298 @@
         <v>657</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B80">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" t="s">
         <v>148</v>
       </c>
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" t="s">
-        <v>122</v>
-      </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G80" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H80" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="I80" t="s">
-        <v>428</v>
+        <v>282</v>
       </c>
       <c r="J80" t="s">
-        <v>186</v>
+        <v>510</v>
       </c>
       <c r="K80" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="L80" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="M80" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>657</v>
+        <v>730</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B81">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F81" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G81" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
       <c r="H81" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="I81" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="J81" t="s">
-        <v>107</v>
+        <v>509</v>
       </c>
       <c r="K81" t="s">
-        <v>555</v>
+        <v>34</v>
       </c>
       <c r="L81" t="s">
-        <v>614</v>
+        <v>132</v>
       </c>
       <c r="M81" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>73</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" t="s">
+        <v>270</v>
+      </c>
+      <c r="G82" t="s">
+        <v>229</v>
+      </c>
+      <c r="H82" t="s">
         <v>60</v>
       </c>
-      <c r="B82">
-        <v>110</v>
-      </c>
-      <c r="C82" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" t="s">
-        <v>134</v>
+      <c r="I82" t="s">
+        <v>452</v>
+      </c>
+      <c r="J82" t="s">
+        <v>511</v>
+      </c>
+      <c r="K82" t="s">
+        <v>567</v>
+      </c>
+      <c r="L82" t="s">
+        <v>630</v>
       </c>
       <c r="M82" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>657</v>
+        <v>701</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>657</v>
+        <v>701</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B83">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G83" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H83" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I83" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J83" t="s">
-        <v>516</v>
+        <v>409</v>
       </c>
       <c r="K83" t="s">
-        <v>572</v>
+        <v>172</v>
       </c>
       <c r="L83" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="M83" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="G84" t="s">
-        <v>332</v>
+        <v>34</v>
       </c>
       <c r="H84" t="s">
-        <v>397</v>
+        <v>173</v>
       </c>
       <c r="I84" t="s">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K84" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L84" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M84" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B85">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E85" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F85" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+      <c r="G85" t="s">
+        <v>328</v>
+      </c>
+      <c r="H85" t="s">
+        <v>394</v>
+      </c>
+      <c r="I85" t="s">
+        <v>454</v>
+      </c>
+      <c r="J85" t="s">
+        <v>512</v>
+      </c>
+      <c r="K85" t="s">
+        <v>568</v>
+      </c>
+      <c r="L85" t="s">
+        <v>632</v>
       </c>
       <c r="M85" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>657</v>
@@ -11159,121 +13525,148 @@
         <v>657</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>733</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="D86" t="s">
+        <v>150</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" t="s">
+        <v>329</v>
+      </c>
+      <c r="H86" t="s">
+        <v>103</v>
+      </c>
+      <c r="I86" t="s">
+        <v>455</v>
+      </c>
+      <c r="J86" t="s">
+        <v>514</v>
+      </c>
+      <c r="K86" t="s">
+        <v>570</v>
+      </c>
+      <c r="L86" t="s">
+        <v>634</v>
       </c>
       <c r="M86" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F87" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="G87" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="H87" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="I87" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="J87" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="K87" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="L87" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="M87" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B88">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="F88" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="G88" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="H88" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="I88" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="J88" t="s">
-        <v>146</v>
+        <v>516</v>
       </c>
       <c r="K88" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="L88" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="M88" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="N88" s="6" t="s">
         <v>657</v>
@@ -11282,98 +13675,98 @@
         <v>657</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>64</v>
+      </c>
+      <c r="C89" t="s">
         <v>81</v>
       </c>
-      <c r="B89">
-        <v>69</v>
-      </c>
-      <c r="C89" t="s">
-        <v>76</v>
-      </c>
       <c r="D89" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="E89" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F89" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="G89" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H89" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I89" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="J89" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="K89" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="L89" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="M89" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>657</v>
+        <v>698</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="F90" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="G90" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="H90" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I90" t="s">
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="J90" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K90" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L90" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M90" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="N90" s="6" t="s">
         <v>657</v>
@@ -11382,248 +13775,230 @@
         <v>657</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="E91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F91" t="s">
-        <v>279</v>
-      </c>
-      <c r="G91" t="s">
-        <v>336</v>
-      </c>
-      <c r="H91" t="s">
-        <v>402</v>
-      </c>
-      <c r="I91" t="s">
-        <v>461</v>
-      </c>
-      <c r="J91" t="s">
-        <v>522</v>
-      </c>
-      <c r="K91" t="s">
-        <v>26</v>
-      </c>
-      <c r="L91" t="s">
-        <v>532</v>
+        <v>277</v>
       </c>
       <c r="M91" t="s">
         <v>657</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B92">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D92" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F92" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="G92" t="s">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="H92" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="I92" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="J92" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="K92" t="s">
-        <v>241</v>
+        <v>575</v>
       </c>
       <c r="L92" t="s">
-        <v>585</v>
+        <v>639</v>
       </c>
       <c r="M92" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B93">
-        <v>299</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="G93" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="H93" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="I93" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="J93" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="K93" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="L93" t="s">
-        <v>95</v>
+        <v>640</v>
       </c>
       <c r="M93" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B94">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="E94" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="F94" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="G94" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="H94" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="I94" t="s">
-        <v>177</v>
+        <v>460</v>
       </c>
       <c r="J94" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="K94" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="L94" t="s">
-        <v>596</v>
+        <v>641</v>
       </c>
       <c r="M94" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B95">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="G95" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="H95" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="I95" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="J95" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="K95" t="s">
-        <v>549</v>
+        <v>26</v>
       </c>
       <c r="L95" t="s">
-        <v>608</v>
+        <v>532</v>
       </c>
       <c r="M95" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="N95" s="6" t="s">
         <v>682</v>
@@ -11632,163 +14007,136 @@
         <v>682</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>685</v>
+        <v>736</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B96">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
-      </c>
-      <c r="D96" t="s">
-        <v>136</v>
-      </c>
-      <c r="E96" t="s">
-        <v>200</v>
-      </c>
-      <c r="F96" t="s">
-        <v>241</v>
-      </c>
-      <c r="G96" t="s">
-        <v>321</v>
-      </c>
-      <c r="H96" t="s">
-        <v>382</v>
-      </c>
-      <c r="I96" t="s">
-        <v>177</v>
-      </c>
-      <c r="J96" t="s">
-        <v>498</v>
-      </c>
-      <c r="K96" t="s">
-        <v>107</v>
-      </c>
-      <c r="L96" t="s">
-        <v>616</v>
+        <v>87</v>
       </c>
       <c r="M96" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B97">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="G97" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="H97" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="I97" t="s">
-        <v>450</v>
+        <v>249</v>
       </c>
       <c r="J97" t="s">
-        <v>506</v>
+        <v>39</v>
       </c>
       <c r="K97" t="s">
-        <v>371</v>
+        <v>578</v>
       </c>
       <c r="L97" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="M97" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>681</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="B98">
-        <v>1785</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D98" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="F98" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="G98" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="H98" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>462</v>
       </c>
       <c r="J98" t="s">
-        <v>324</v>
+        <v>523</v>
       </c>
       <c r="K98" t="s">
-        <v>143</v>
+        <v>579</v>
       </c>
       <c r="L98" t="s">
-        <v>580</v>
+        <v>306</v>
       </c>
       <c r="M98" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>698</v>
+        <v>650</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>732</v>
+        <v>650</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{35AD9548-7EF0-7B43-9D99-98AB3780D3D8}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P98">
-      <sortCondition ref="O1:O98"/>
+      <sortCondition descending="1" ref="B1:B98"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11800,7 +14148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4AB8E5-D2A6-194B-9C32-23BF8942135D}">
   <dimension ref="A3:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -11822,39 +14170,39 @@
       <c r="A4" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>10209</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>1408</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>2922</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>1655</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>4224</v>
       </c>
     </row>
@@ -11862,15 +14210,15 @@
       <c r="A9" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>1579</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>1579</v>
       </c>
     </row>
@@ -11878,15 +14226,15 @@
       <c r="A11" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>518</v>
       </c>
     </row>
@@ -11894,15 +14242,15 @@
       <c r="A13" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>1049</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>1049</v>
       </c>
     </row>
@@ -11910,15 +14258,15 @@
       <c r="A15" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>505</v>
       </c>
     </row>
@@ -11926,15 +14274,15 @@
       <c r="A17" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>1435</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>1435</v>
       </c>
     </row>
@@ -11942,15 +14290,15 @@
       <c r="A19" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>18072</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>18072</v>
       </c>
     </row>
@@ -11958,15 +14306,15 @@
       <c r="A21" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>2400</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>2400</v>
       </c>
     </row>
@@ -11974,31 +14322,31 @@
       <c r="A23" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>2772</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>1274</v>
       </c>
     </row>
@@ -12006,23 +14354,23 @@
       <c r="A27" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>2457</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>1785</v>
       </c>
     </row>
@@ -12030,15 +14378,15 @@
       <c r="A30" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>740</v>
       </c>
     </row>
@@ -12046,15 +14394,15 @@
       <c r="A32" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>1642</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>1642</v>
       </c>
     </row>
@@ -12062,15 +14410,15 @@
       <c r="A34" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>1663</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>1663</v>
       </c>
     </row>
@@ -12078,25 +14426,22 @@
       <c r="A36" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39">
         <v>45041</v>
       </c>
     </row>
@@ -12106,11 +14451,150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206839CC-7E90-CF41-A00A-971646C67A6D}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" s="9">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" s="9">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" s="9">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B8" s="9">
+        <v>18072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B12" s="9">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B15" s="9">
+        <v>45041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7970F2-042D-A74F-9455-4B49A03DF79B}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12289,7 +14773,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A95DCE-5E58-254A-820C-9E910855EDEB}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B2" s="9">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" s="9">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B5" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B7" s="9">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B8" s="9">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B9" s="9">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B10" s="9">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B11" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B12" s="9">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B13" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B14" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B17" s="9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B18" s="9">
+        <v>18072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B19" s="9">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" s="9">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B21" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B23" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B25" s="9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B27" s="9">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B29" s="9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B30" s="9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B31" s="9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B32" s="9">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B33" s="9">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B36" s="9">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B37" s="9">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B38" s="9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B39" s="9">
+        <v>45041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069BC886-72E4-CE4F-B285-E653567AA79C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -12512,7 +15327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480442F6-F048-F142-992B-EDCAD4F28AEF}">
   <dimension ref="A3:B22"/>
   <sheetViews>
